--- a/TimeSheets/9_27-zamo4930.xlsx
+++ b/TimeSheets/9_27-zamo4930.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -39,22 +39,16 @@
     <t>Lecture</t>
   </si>
   <si>
-    <t>75min</t>
-  </si>
-  <si>
     <t>Read/Study</t>
   </si>
   <si>
     <t>Team Meeting</t>
   </si>
   <si>
-    <t>75 min</t>
-  </si>
-  <si>
     <t>Sponsor Meeting</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>TA meeting</t>
   </si>
   <si>
     <t>Daily Total</t>
@@ -99,14 +93,13 @@
     </font>
     <font/>
     <font>
-      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <i/>
@@ -197,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -215,19 +208,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="16" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
@@ -540,219 +542,227 @@
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15">
+      <c r="B6" s="13">
+        <v>75.0</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16">
         <f t="shared" ref="I6:I9" si="1">SUM(B6:H6)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17">
+        <v>60.0</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="18">
+        <v>60.0</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15">
+      <c r="B8" s="14"/>
+      <c r="C8" s="13">
+        <v>75.0</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17">
+        <v>60.0</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
+      <c r="A10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16">
         <f t="shared" ref="B16:I16" si="2">SUM(B6:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="15">
+        <v>75</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="D16" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D16" s="15">
+      <c r="E16" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E16" s="15">
+      <c r="F16" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15">
+      <c r="G16" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="15">
+      <c r="H16" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
+        <v>60</v>
+      </c>
+      <c r="I16" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="J16" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="18" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="18" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="18" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="21" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
